--- a/DesignerConfigs/Datas/战斗/站位.xlsx
+++ b/DesignerConfigs/Datas/战斗/站位.xlsx
@@ -27,12 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="16">
   <si>
     <t>##type</t>
   </si>
   <si>
-    <t>string</t>
+    <t>ECamp</t>
+  </si>
+  <si>
+    <t>int</t>
   </si>
   <si>
     <t>float</t>
@@ -41,7 +44,10 @@
     <t>##var</t>
   </si>
   <si>
-    <t>id</t>
+    <t>camp</t>
+  </si>
+  <si>
+    <t>index</t>
   </si>
   <si>
     <t>x</t>
@@ -53,7 +59,10 @@
     <t>##</t>
   </si>
   <si>
-    <t>编号</t>
+    <t>阵营</t>
+  </si>
+  <si>
+    <t>索引</t>
   </si>
   <si>
     <t>坐标x</t>
@@ -62,94 +71,10 @@
     <t>坐标z</t>
   </si>
   <si>
-    <t>A1</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>A11</t>
-  </si>
-  <si>
-    <t>A12</t>
-  </si>
-  <si>
-    <t>A13</t>
-  </si>
-  <si>
-    <t>A14</t>
-  </si>
-  <si>
-    <t>A15</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>B12</t>
-  </si>
-  <si>
-    <t>B13</t>
-  </si>
-  <si>
-    <t>B14</t>
-  </si>
-  <si>
-    <t>B15</t>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -162,7 +87,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,25 +109,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -747,137 +654,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -896,43 +803,37 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -943,9 +844,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1276,531 +1174,631 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="36.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="36.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="36.375" style="4" customWidth="1"/>
+    <col min="2" max="3" width="36.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="36.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="36.375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:12">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="14">
+        <v>1</v>
+      </c>
+      <c r="D5" s="15">
+        <v>3.17</v>
+      </c>
+      <c r="E5" s="16">
+        <v>-1.07</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:12">
+      <c r="A6" s="18"/>
+      <c r="B6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="14">
+        <v>2</v>
+      </c>
+      <c r="D6" s="15">
+        <v>2.18</v>
+      </c>
+      <c r="E6" s="16">
+        <v>-2.29</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:12">
+      <c r="A7" s="18"/>
+      <c r="B7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="14">
+        <v>3</v>
+      </c>
+      <c r="D7" s="15">
+        <v>4.05</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0.07</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:12">
+      <c r="A8" s="18"/>
+      <c r="B8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="14">
+        <v>4</v>
+      </c>
+      <c r="D8" s="15">
+        <v>1.3</v>
+      </c>
+      <c r="E8" s="16">
+        <v>-3.4</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:12">
+      <c r="A9" s="18"/>
+      <c r="B9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="14">
+        <v>5</v>
+      </c>
+      <c r="D9" s="15">
+        <v>5.05</v>
+      </c>
+      <c r="E9" s="16">
+        <v>1.17</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:12">
+      <c r="A10" s="18"/>
+      <c r="B10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="14">
+        <v>6</v>
+      </c>
+      <c r="D10" s="15">
+        <v>1.51</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0.67</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:12">
+      <c r="A11" s="19"/>
+      <c r="B11" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="14">
         <v>7</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="D11" s="20">
+        <v>0.52</v>
+      </c>
+      <c r="E11" s="21">
+        <v>-0.55</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:12">
+      <c r="A12" s="19"/>
+      <c r="B12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="14">
         <v>8</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D12" s="20">
+        <v>2.39</v>
+      </c>
+      <c r="E12" s="21">
+        <v>1.81</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:12">
+      <c r="A13" s="19"/>
+      <c r="B13" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="14">
         <v>9</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D13" s="20">
+        <v>-0.38</v>
+      </c>
+      <c r="E13" s="21">
+        <v>-1.66</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:12">
+      <c r="A14" s="19"/>
+      <c r="B14" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="14">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:11">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16" t="s">
+      <c r="D14" s="20">
+        <v>3.32</v>
+      </c>
+      <c r="E14" s="21">
+        <v>3.01</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:12">
+      <c r="A15" s="19"/>
+      <c r="B15" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="14">
         <v>11</v>
       </c>
-      <c r="C5" s="17">
-        <v>3.17</v>
-      </c>
-      <c r="D5" s="18">
+      <c r="D15" s="20">
+        <v>4.2</v>
+      </c>
+      <c r="E15" s="21">
+        <v>-2.17</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:12">
+      <c r="A16" s="19"/>
+      <c r="B16" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="14">
+        <v>12</v>
+      </c>
+      <c r="D16" s="20">
+        <v>3.32</v>
+      </c>
+      <c r="E16" s="21">
+        <v>-3.31</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:12">
+      <c r="A17" s="19"/>
+      <c r="B17" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="14">
+        <v>13</v>
+      </c>
+      <c r="D17" s="20">
+        <v>5.18</v>
+      </c>
+      <c r="E17" s="21">
         <v>-1.07</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:11">
-      <c r="A6" s="20"/>
-      <c r="B6" s="16" t="s">
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:12">
+      <c r="A18" s="19"/>
+      <c r="B18" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="14">
+        <v>14</v>
+      </c>
+      <c r="D18" s="20">
+        <v>5.18</v>
+      </c>
+      <c r="E18" s="21">
+        <v>-3.33</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:12">
+      <c r="A19" s="19"/>
+      <c r="B19" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="14">
+        <v>15</v>
+      </c>
+      <c r="D19" s="20">
+        <v>2</v>
+      </c>
+      <c r="E19" s="21">
+        <v>3.7</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="22"/>
+      <c r="B20" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="23">
+        <v>1</v>
+      </c>
+      <c r="D20" s="24">
+        <v>-3.62</v>
+      </c>
+      <c r="E20" s="25">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="22"/>
+      <c r="B21" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="23">
+        <v>2</v>
+      </c>
+      <c r="D21" s="24">
+        <v>-2.7</v>
+      </c>
+      <c r="E21" s="25">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="22"/>
+      <c r="B22" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="23">
+        <v>3</v>
+      </c>
+      <c r="D22" s="24">
+        <v>-4.63</v>
+      </c>
+      <c r="E22" s="25">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="22"/>
+      <c r="B23" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="23">
+        <v>4</v>
+      </c>
+      <c r="D23" s="24">
+        <v>-1.76</v>
+      </c>
+      <c r="E23" s="25">
+        <v>5.54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="23">
+        <v>5</v>
+      </c>
+      <c r="D24" s="24">
+        <v>-5.53</v>
+      </c>
+      <c r="E24" s="25">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="22"/>
+      <c r="B25" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="23">
+        <v>6</v>
+      </c>
+      <c r="D25" s="24">
+        <v>-2.18</v>
+      </c>
+      <c r="E25" s="25">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="22"/>
+      <c r="B26" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="23">
+        <v>7</v>
+      </c>
+      <c r="D26" s="24">
+        <v>-1.23</v>
+      </c>
+      <c r="E26" s="25">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="22"/>
+      <c r="B27" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="23">
+        <v>8</v>
+      </c>
+      <c r="D27" s="24">
+        <v>-3.21</v>
+      </c>
+      <c r="E27" s="25">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="22"/>
+      <c r="B28" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="23">
+        <v>9</v>
+      </c>
+      <c r="D28" s="24">
+        <v>-0.22</v>
+      </c>
+      <c r="E28" s="25">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="22"/>
+      <c r="B29" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="23">
+        <v>10</v>
+      </c>
+      <c r="D29" s="24">
+        <v>-4.23</v>
+      </c>
+      <c r="E29" s="25">
+        <v>-0.63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="22"/>
+      <c r="B30" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="23">
+        <v>11</v>
+      </c>
+      <c r="D30" s="24">
+        <v>-4.79</v>
+      </c>
+      <c r="E30" s="25">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="22"/>
+      <c r="B31" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="23">
         <v>12</v>
       </c>
-      <c r="C6" s="17">
-        <v>2.18</v>
-      </c>
-      <c r="D6" s="18">
-        <v>-2.29</v>
-      </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:11">
-      <c r="A7" s="20"/>
-      <c r="B7" s="16" t="s">
+      <c r="D31" s="24">
+        <v>-3.79</v>
+      </c>
+      <c r="E31" s="25">
+        <v>5.639</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="22"/>
+      <c r="B32" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="23">
         <v>13</v>
       </c>
-      <c r="C7" s="17">
-        <v>4.05</v>
-      </c>
-      <c r="D7" s="18">
-        <v>0.07</v>
-      </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:11">
-      <c r="A8" s="20"/>
-      <c r="B8" s="16" t="s">
+      <c r="D32" s="24">
+        <v>-5.67</v>
+      </c>
+      <c r="E32" s="25">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="22"/>
+      <c r="B33" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="23">
         <v>14</v>
       </c>
-      <c r="C8" s="17">
-        <v>1.3</v>
-      </c>
-      <c r="D8" s="18">
-        <v>-3.4</v>
-      </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:11">
-      <c r="A9" s="20"/>
-      <c r="B9" s="16" t="s">
+      <c r="D33" s="24">
+        <v>-5.59</v>
+      </c>
+      <c r="E33" s="25">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="22"/>
+      <c r="B34" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="17">
-        <v>5.05</v>
-      </c>
-      <c r="D9" s="18">
-        <v>1.17</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:11">
-      <c r="A10" s="20"/>
-      <c r="B10" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="17">
-        <v>1.51</v>
-      </c>
-      <c r="D10" s="18">
-        <v>0.67</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:11">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="23">
-        <v>0.52</v>
-      </c>
-      <c r="D11" s="24">
-        <v>-0.55</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:11">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="23">
-        <v>2.39</v>
-      </c>
-      <c r="D12" s="24">
-        <v>1.81</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:11">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="23">
-        <v>-0.38</v>
-      </c>
-      <c r="D13" s="24">
-        <v>-1.66</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:11">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="23">
-        <v>3.32</v>
-      </c>
-      <c r="D14" s="24">
-        <v>3.01</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:11">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="23">
-        <v>4.2</v>
-      </c>
-      <c r="D15" s="24">
-        <v>-2.17</v>
-      </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:11">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="23">
-        <v>3.32</v>
-      </c>
-      <c r="D16" s="24">
-        <v>-3.31</v>
-      </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:11">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="23">
-        <v>5.18</v>
-      </c>
-      <c r="D17" s="24">
-        <v>-1.07</v>
-      </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:11">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="23">
-        <v>5.18</v>
-      </c>
-      <c r="D18" s="24">
-        <v>-3.33</v>
-      </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:11">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="23">
-        <v>2</v>
-      </c>
-      <c r="D19" s="24">
-        <v>3.7</v>
-      </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="25"/>
-      <c r="B20" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="27">
-        <v>-3.62</v>
-      </c>
-      <c r="D20" s="28">
-        <v>3.32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="25"/>
-      <c r="B21" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="27">
-        <v>-2.7</v>
-      </c>
-      <c r="D21" s="28">
-        <v>4.49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="25"/>
-      <c r="B22" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="27">
-        <v>-4.63</v>
-      </c>
-      <c r="D22" s="28">
-        <v>2.39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="25"/>
-      <c r="B23" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="27">
-        <v>-1.76</v>
-      </c>
-      <c r="D23" s="28">
-        <v>5.54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="25"/>
-      <c r="B24" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="27">
-        <v>-5.53</v>
-      </c>
-      <c r="D24" s="28">
-        <v>1.28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="25"/>
-      <c r="B25" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="27">
-        <v>-2.18</v>
-      </c>
-      <c r="D25" s="28">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="25"/>
-      <c r="B26" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="27">
-        <v>-1.23</v>
-      </c>
-      <c r="D26" s="28">
-        <v>2.84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="25"/>
-      <c r="B27" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="27">
-        <v>-3.21</v>
-      </c>
-      <c r="D27" s="28">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="25"/>
-      <c r="B28" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="27">
-        <v>-0.22</v>
-      </c>
-      <c r="D28" s="28">
-        <v>3.94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="25"/>
-      <c r="B29" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="27">
-        <v>-4.23</v>
-      </c>
-      <c r="D29" s="28">
-        <v>-0.63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="25"/>
-      <c r="B30" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="27">
-        <v>-4.79</v>
-      </c>
-      <c r="D30" s="28">
-        <v>4.59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="25"/>
-      <c r="B31" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="27">
-        <v>-3.79</v>
-      </c>
-      <c r="D31" s="28">
-        <v>5.639</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="25"/>
-      <c r="B32" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="27">
-        <v>-5.67</v>
-      </c>
-      <c r="D32" s="28">
-        <v>3.45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="25"/>
-      <c r="B33" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="27">
-        <v>-5.59</v>
-      </c>
-      <c r="D33" s="28">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="25"/>
-      <c r="B34" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="27">
+      <c r="C34" s="23">
+        <v>15</v>
+      </c>
+      <c r="D34" s="24">
         <v>-1.96</v>
       </c>
-      <c r="D34" s="28">
+      <c r="E34" s="25">
         <v>-0.62</v>
       </c>
     </row>
